--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="223">
   <si>
     <t>receptor</t>
   </si>
@@ -519,13 +519,178 @@
   </si>
   <si>
     <t>52.072</t>
+  </si>
+  <si>
+    <t>10.063</t>
+  </si>
+  <si>
+    <t>10.041</t>
+  </si>
+  <si>
+    <t>6.951</t>
+  </si>
+  <si>
+    <t>6.966</t>
+  </si>
+  <si>
+    <t>15.239</t>
+  </si>
+  <si>
+    <t>15.138</t>
+  </si>
+  <si>
+    <t>6.530</t>
+  </si>
+  <si>
+    <t>4.432</t>
+  </si>
+  <si>
+    <t>5.831</t>
+  </si>
+  <si>
+    <t>8.310</t>
+  </si>
+  <si>
+    <t>5.656</t>
+  </si>
+  <si>
+    <t>5.796</t>
+  </si>
+  <si>
+    <t>8.621</t>
+  </si>
+  <si>
+    <t>7.768</t>
+  </si>
+  <si>
+    <t>5.830</t>
+  </si>
+  <si>
+    <t>7.468</t>
+  </si>
+  <si>
+    <t>5.299</t>
+  </si>
+  <si>
+    <t>7.709</t>
+  </si>
+  <si>
+    <t>6.727</t>
+  </si>
+  <si>
+    <t>5.011</t>
+  </si>
+  <si>
+    <t>6.248</t>
+  </si>
+  <si>
+    <t>6.375</t>
+  </si>
+  <si>
+    <t>5.938</t>
+  </si>
+  <si>
+    <t>5.092</t>
+  </si>
+  <si>
+    <t>7.726</t>
+  </si>
+  <si>
+    <t>7.415</t>
+  </si>
+  <si>
+    <t>7.516</t>
+  </si>
+  <si>
+    <t>7.149</t>
+  </si>
+  <si>
+    <t>Wyniki - loop modeling</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>1.028</t>
+  </si>
+  <si>
+    <t>1.387</t>
+  </si>
+  <si>
+    <t>1.494</t>
+  </si>
+  <si>
+    <t>1.925</t>
+  </si>
+  <si>
+    <t>2.002</t>
+  </si>
+  <si>
+    <t>3.827</t>
+  </si>
+  <si>
+    <t>3.824</t>
+  </si>
+  <si>
+    <t>4.792</t>
+  </si>
+  <si>
+    <t>5.117</t>
+  </si>
+  <si>
+    <t>6.332</t>
+  </si>
+  <si>
+    <t>6.346</t>
+  </si>
+  <si>
+    <t>5.334</t>
+  </si>
+  <si>
+    <t>5.442</t>
+  </si>
+  <si>
+    <t>3.665</t>
+  </si>
+  <si>
+    <t>3.630</t>
+  </si>
+  <si>
+    <t>3.789</t>
+  </si>
+  <si>
+    <t>3.750</t>
+  </si>
+  <si>
+    <t>4.847</t>
+  </si>
+  <si>
+    <t>5.111</t>
+  </si>
+  <si>
+    <t>2.622</t>
+  </si>
+  <si>
+    <t>2.761</t>
+  </si>
+  <si>
+    <t>5.121</t>
+  </si>
+  <si>
+    <t>5.715</t>
+  </si>
+  <si>
+    <t>5.072</t>
+  </si>
+  <si>
+    <t>4.587</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +749,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +778,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -617,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,6 +844,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -946,18 +1165,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -987,8 +1208,13 @@
         <v>128</v>
       </c>
       <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1016,14 +1242,18 @@
       <c r="I2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1051,14 +1281,18 @@
       <c r="I3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -1092,8 +1326,12 @@
       <c r="K4" s="13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="14"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
@@ -1128,8 +1366,12 @@
         <v>127</v>
       </c>
       <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1164,8 +1406,12 @@
         <v>132</v>
       </c>
       <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1200,8 +1446,12 @@
         <v>136</v>
       </c>
       <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
@@ -1236,8 +1486,12 @@
         <v>140</v>
       </c>
       <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -1272,8 +1526,12 @@
         <v>144</v>
       </c>
       <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -1308,8 +1566,12 @@
         <v>148</v>
       </c>
       <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -1322,30 +1584,34 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="18" t="s">
         <v>150</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="18" t="s">
         <v>151</v>
       </c>
       <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
         <v>65</v>
       </c>
@@ -1358,30 +1624,34 @@
       <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="18" t="s">
         <v>153</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="18" t="s">
         <v>155</v>
       </c>
       <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -1416,8 +1686,12 @@
         <v>159</v>
       </c>
       <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
@@ -1452,8 +1726,12 @@
         <v>163</v>
       </c>
       <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
@@ -1488,6 +1766,759 @@
         <v>167</v>
       </c>
       <c r="L15" s="13"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4">
+        <v>612</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4">
+        <v>570</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="F34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="F35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="F36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="F37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="F38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="F39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="F40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="F41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="F42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="F43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="F44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="F45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="F46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="F47" s="13"/>
+      <c r="H47" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
